--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2583869.590194797</v>
+        <v>2585688.861885837</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9964927.035287928</v>
+        <v>9964927.035287926</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>430763.7823717226</v>
+        <v>430763.7823717225</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9357187.960308043</v>
+        <v>9357187.960308045</v>
       </c>
     </row>
     <row r="11">
@@ -667,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>378.0878206727383</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>117.339905340422</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -819,10 +819,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>88.80932687628595</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>171.7498680634317</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>271.1696440040406</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -952,19 +952,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>52.82290122762556</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>83.82466560786631</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,16 +1141,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>289.8526611205789</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.78417002079501</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>262.647154481924</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481182</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089716</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250822</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229338</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853706</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491438</v>
       </c>
       <c r="R10" t="n">
-        <v>30.60408762095441</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>54.46079155833809</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710073</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8432760127566</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H11" t="n">
         <v>283.5630920045443</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>7.729505493042338</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>67.18075159108355</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
-        <v>257.0415282485758</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520908</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127567</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>89.5340822374514</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>153.5232897167185</v>
       </c>
     </row>
     <row r="17">
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>81.37259901119292</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>89.53408223745137</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,7 +2098,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H20" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045434</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T20" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U20" t="n">
         <v>250.9088959876463</v>
@@ -2177,7 +2177,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>64.44601915223838</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>64.44601915224106</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S22" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T22" t="n">
         <v>217.4819944627618</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T23" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U23" t="n">
         <v>250.9088959876463</v>
@@ -2414,7 +2414,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H24" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>64.44601915223838</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S25" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4819944627618</v>
+        <v>51.50796385238184</v>
       </c>
       <c r="U25" t="n">
         <v>286.1854515484204</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T26" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U26" t="n">
         <v>250.9088959876463</v>
@@ -2651,7 +2651,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H27" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>64.44601915224102</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S28" t="n">
-        <v>105.3305177187436</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T28" t="n">
         <v>217.4819944627618</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T29" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U29" t="n">
         <v>250.9088959876463</v>
@@ -2888,7 +2888,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H30" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2958,7 +2958,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I31" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>103.171489034085</v>
       </c>
       <c r="T31" t="n">
-        <v>159.5732140099678</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U31" t="n">
         <v>286.1854515484204</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3043,10 +3043,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H32" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045445</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060082001</v>
       </c>
       <c r="T32" t="n">
         <v>199.1970568374742</v>
@@ -3125,7 +3125,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H33" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561465</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>117.4255876952162</v>
+        <v>117.4255876952164</v>
       </c>
       <c r="T33" t="n">
         <v>188.3907690366107</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>128.3729041642958</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H34" t="n">
-        <v>140.4539897919539</v>
+        <v>140.453989791954</v>
       </c>
       <c r="I34" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>67.18075159108355</v>
+        <v>67.1807515910839</v>
       </c>
       <c r="S34" t="n">
-        <v>181.338488358459</v>
+        <v>105.3305177187355</v>
       </c>
       <c r="T34" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8432760127574</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H35" t="n">
         <v>283.5630920045443</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081882</v>
       </c>
       <c r="T35" t="n">
         <v>199.1970568374742</v>
@@ -3362,7 +3362,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H36" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5420528771669</v>
+        <v>89.5340822374514</v>
       </c>
       <c r="H37" t="n">
         <v>140.4539897919539</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S37" t="n">
-        <v>105.3305177187436</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T37" t="n">
         <v>217.4819944627618</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417104</v>
       </c>
       <c r="G38" t="n">
         <v>409.8432760127576</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.61259060081973</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T38" t="n">
         <v>199.1970568374742</v>
@@ -3599,7 +3599,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H39" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>91.23885045891228</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5420528771669</v>
@@ -3681,7 +3681,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I40" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S40" t="n">
         <v>181.338488358459</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>193.0900789498597</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127566</v>
       </c>
       <c r="H41" t="n">
         <v>283.5630920045443</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.61259060081973</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T41" t="n">
         <v>199.1970568374742</v>
@@ -3836,7 +3836,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>23.94516103140406</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>51.50796385237864</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U43" t="n">
         <v>286.1854515484204</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T44" t="n">
         <v>199.1970568374742</v>
@@ -4073,7 +4073,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4137,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>23.94516103140406</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>5.313812950988587</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1036.358670716696</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1000.301752183305</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>589.3158473936974</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2347.417756953369</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2093.65597159146</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>1762.593084247889</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W2" t="n">
-        <v>1409.824428977775</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X2" t="n">
-        <v>1036.358670716696</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y2" t="n">
-        <v>1036.358670716696</v>
+        <v>1386.090004781549</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>143.6493726044917</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C4" t="n">
-        <v>143.6493726044917</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>143.6493726044917</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>143.6493726044917</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>143.6493726044917</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>325.2978374347314</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>325.2978374347314</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="X4" t="n">
-        <v>325.2978374347314</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="Y4" t="n">
-        <v>325.2978374347314</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>882.8926947117852</v>
+        <v>1097.103316533935</v>
       </c>
       <c r="C5" t="n">
-        <v>882.8926947117852</v>
+        <v>1097.103316533935</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>738.8376179271847</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>738.8376179271847</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>327.8517131375772</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4600,19 +4600,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X5" t="n">
-        <v>936.2491605982757</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="Y5" t="n">
-        <v>882.8926947117852</v>
+        <v>1483.703156598057</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4658,37 +4658,37 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4758,19 +4758,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>184.2708856551153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.915471247702</v>
+        <v>1857.168914859135</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.952954307291</v>
+        <v>1488.206397918723</v>
       </c>
       <c r="D8" t="n">
-        <v>764.6872557005402</v>
+        <v>1129.940699311973</v>
       </c>
       <c r="E8" t="n">
-        <v>764.6872557005402</v>
+        <v>744.1524467137285</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>333.166541924121</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>319.2431378627119</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224069</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977173</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642688</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862884</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834947</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834947</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834947</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834947</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.654643287636</v>
+        <v>2247.308246834947</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.515311311824</v>
+        <v>1857.168914859135</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615925</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572642</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2643.317569050018</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>99.59950625323013</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>99.59950625323013</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>99.59950625323013</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>99.59950625323013</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323013</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323013</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323013</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323013</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477908</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658206</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502495</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594895</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064336</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600555</v>
       </c>
       <c r="R10" t="n">
-        <v>667.7988452409105</v>
+        <v>698.7120650600555</v>
       </c>
       <c r="S10" t="n">
-        <v>667.7988452409105</v>
+        <v>698.7120650600555</v>
       </c>
       <c r="T10" t="n">
-        <v>667.7988452409105</v>
+        <v>698.7120650600555</v>
       </c>
       <c r="U10" t="n">
-        <v>667.7988452409105</v>
+        <v>698.7120650600555</v>
       </c>
       <c r="V10" t="n">
-        <v>667.7988452409105</v>
+        <v>444.0275768541686</v>
       </c>
       <c r="W10" t="n">
-        <v>667.7988452409105</v>
+        <v>154.610406817208</v>
       </c>
       <c r="X10" t="n">
-        <v>667.7988452409105</v>
+        <v>99.59950625323013</v>
       </c>
       <c r="Y10" t="n">
-        <v>667.7988452409105</v>
+        <v>99.59950625323013</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C11" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D11" t="n">
-        <v>1591.032978284207</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E11" t="n">
-        <v>1205.244725685963</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F11" t="n">
-        <v>794.2588208963555</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G11" t="n">
-        <v>380.2757138127629</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H11" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I11" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J11" t="n">
-        <v>424.1437450015196</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K11" t="n">
-        <v>893.7741287892015</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L11" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M11" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N11" t="n">
-        <v>2971.58344915112</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O11" t="n">
-        <v>3654.445485610258</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P11" t="n">
-        <v>4202.751434297606</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q11" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R11" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T11" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U11" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V11" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W11" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X11" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H12" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I12" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J12" t="n">
-        <v>93.84834815160703</v>
+        <v>144.0153224630498</v>
       </c>
       <c r="K12" t="n">
-        <v>142.676769632785</v>
+        <v>474.5240650264086</v>
       </c>
       <c r="L12" t="n">
-        <v>142.676769632785</v>
+        <v>965.25639787016</v>
       </c>
       <c r="M12" t="n">
-        <v>734.6951238849127</v>
+        <v>965.25639787016</v>
       </c>
       <c r="N12" t="n">
-        <v>1356.791087284249</v>
+        <v>1587.352361269496</v>
       </c>
       <c r="O12" t="n">
-        <v>1903.667562284443</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P12" t="n">
-        <v>2323.251080710519</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.812354695766</v>
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.7042115721531</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7680286442462</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6513892319105</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7382956495174</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="F13" t="n">
-        <v>93.84834815160703</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="G13" t="n">
-        <v>93.84834815160703</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H13" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I13" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J13" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K13" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L13" t="n">
         <v>820.2210160948589</v>
@@ -5226,25 +5226,25 @@
         <v>2361.553154294196</v>
       </c>
       <c r="S13" t="n">
-        <v>2361.553154294196</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T13" t="n">
-        <v>2141.874372008578</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U13" t="n">
-        <v>1882.236464686784</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V13" t="n">
-        <v>1627.551976480897</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W13" t="n">
-        <v>1338.134806443936</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.145255545919</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3526764023928</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="14">
@@ -5254,55 +5254,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C14" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D14" t="n">
-        <v>1591.032978284207</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E14" t="n">
-        <v>1205.244725685963</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F14" t="n">
-        <v>794.2588208963555</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G14" t="n">
         <v>380.2757138127629</v>
       </c>
       <c r="H14" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I14" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J14" t="n">
-        <v>424.1437450015196</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K14" t="n">
-        <v>893.7741287892015</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L14" t="n">
-        <v>1513.293909294976</v>
+        <v>1513.293909294977</v>
       </c>
       <c r="M14" t="n">
-        <v>2234.298471234014</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N14" t="n">
-        <v>2971.58344915112</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O14" t="n">
-        <v>3654.445485610258</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P14" t="n">
-        <v>4202.751434297606</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q14" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R14" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S14" t="n">
         <v>4606.950144347201</v>
@@ -5311,19 +5311,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U14" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V14" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W14" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X14" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="15">
@@ -5351,16 +5351,16 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H15" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I15" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J15" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="K15" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="L15" t="n">
         <v>584.5806809953584</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>495.0957149476001</v>
+        <v>560.8142640742428</v>
       </c>
       <c r="C16" t="n">
-        <v>326.1595320196932</v>
+        <v>391.8780811463359</v>
       </c>
       <c r="D16" t="n">
-        <v>326.1595320196932</v>
+        <v>241.7614417340002</v>
       </c>
       <c r="E16" t="n">
-        <v>326.1595320196932</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="F16" t="n">
-        <v>326.1595320196932</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="G16" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H16" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I16" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J16" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K16" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L16" t="n">
         <v>820.2210160948589</v>
@@ -5481,7 +5481,7 @@
         <v>897.5367589213699</v>
       </c>
       <c r="Y16" t="n">
-        <v>676.7441797778398</v>
+        <v>742.4627289044826</v>
       </c>
     </row>
     <row r="17">
@@ -5503,19 +5503,19 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G17" t="n">
-        <v>380.2757138127623</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H17" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I17" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J17" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K17" t="n">
         <v>842.974607438402</v>
@@ -5536,13 +5536,13 @@
         <v>4151.951912946808</v>
       </c>
       <c r="Q17" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R17" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T17" t="n">
         <v>4405.740996026519</v>
@@ -5588,31 +5588,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H18" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I18" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J18" t="n">
         <v>241.496329903453</v>
       </c>
       <c r="K18" t="n">
-        <v>572.0050724668117</v>
+        <v>241.496329903453</v>
       </c>
       <c r="L18" t="n">
-        <v>1062.737405310563</v>
+        <v>732.2286627472043</v>
       </c>
       <c r="M18" t="n">
-        <v>1654.755759562691</v>
+        <v>1324.247016999332</v>
       </c>
       <c r="N18" t="n">
-        <v>1903.667562284443</v>
+        <v>1946.342980398668</v>
       </c>
       <c r="O18" t="n">
-        <v>1903.667562284443</v>
+        <v>2493.219455398862</v>
       </c>
       <c r="P18" t="n">
-        <v>2323.251080710519</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.812354695766</v>
@@ -5655,28 +5655,28 @@
         <v>326.1595320196932</v>
       </c>
       <c r="D19" t="n">
-        <v>176.0428926073575</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E19" t="n">
-        <v>93.84834815160703</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="F19" t="n">
-        <v>93.84834815160703</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="G19" t="n">
-        <v>93.84834815160703</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H19" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I19" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J19" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K19" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L19" t="n">
         <v>820.2210160948589</v>
@@ -5737,13 +5737,13 @@
         <v>1591.032978284207</v>
       </c>
       <c r="E20" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963555</v>
       </c>
       <c r="G20" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127619</v>
       </c>
       <c r="H20" t="n">
         <v>93.84834815160703</v>
@@ -5752,28 +5752,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J20" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K20" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L20" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M20" t="n">
-        <v>2183.498949883215</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N20" t="n">
-        <v>2920.783927800321</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O20" t="n">
-        <v>3603.64596425946</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P20" t="n">
-        <v>4151.951912946808</v>
+        <v>4151.951912946813</v>
       </c>
       <c r="Q20" t="n">
-        <v>4515.534099052815</v>
+        <v>4515.53409905282</v>
       </c>
       <c r="R20" t="n">
         <v>4692.417407580351</v>
@@ -5834,16 +5834,16 @@
         <v>93.84834815160703</v>
       </c>
       <c r="K21" t="n">
-        <v>302.0892292003568</v>
+        <v>424.3570907149663</v>
       </c>
       <c r="L21" t="n">
-        <v>792.8215620441082</v>
+        <v>915.0894235587183</v>
       </c>
       <c r="M21" t="n">
-        <v>1384.839916296236</v>
+        <v>1507.107777810847</v>
       </c>
       <c r="N21" t="n">
-        <v>2006.935879695572</v>
+        <v>2129.203741210184</v>
       </c>
       <c r="O21" t="n">
         <v>2553.812354695766</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>495.0957149476001</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="C22" t="n">
-        <v>326.1595320196932</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="D22" t="n">
-        <v>326.1595320196932</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="E22" t="n">
-        <v>326.1595320196932</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0625429770282</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="G22" t="n">
-        <v>93.84834815160703</v>
+        <v>158.9453371942748</v>
       </c>
       <c r="H22" t="n">
         <v>93.84834815160703</v>
@@ -5910,52 +5910,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J22" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K22" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L22" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M22" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N22" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O22" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P22" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q22" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R22" t="n">
-        <v>2361.553154294196</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S22" t="n">
-        <v>2178.382964033126</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T22" t="n">
-        <v>1958.704181747508</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U22" t="n">
-        <v>1669.627968062235</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V22" t="n">
-        <v>1414.943479856348</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W22" t="n">
-        <v>1125.526309819387</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X22" t="n">
-        <v>897.5367589213699</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.7441797778398</v>
+        <v>676.7441797778425</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C23" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D23" t="n">
         <v>1591.032978284208</v>
@@ -5977,64 +5977,64 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F23" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G23" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H23" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I23" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J23" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K23" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L23" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M23" t="n">
-        <v>2183.498949883215</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N23" t="n">
-        <v>2920.783927800321</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O23" t="n">
-        <v>3603.64596425946</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P23" t="n">
-        <v>4151.951912946808</v>
+        <v>4151.951912946813</v>
       </c>
       <c r="Q23" t="n">
-        <v>4515.534099052815</v>
+        <v>4515.53409905282</v>
       </c>
       <c r="R23" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T23" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U23" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V23" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W23" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X23" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="24">
@@ -6071,19 +6071,19 @@
         <v>93.84834815160703</v>
       </c>
       <c r="K24" t="n">
-        <v>93.84834815160703</v>
+        <v>424.3570907149663</v>
       </c>
       <c r="L24" t="n">
-        <v>584.5806809953584</v>
+        <v>915.0894235587183</v>
       </c>
       <c r="M24" t="n">
-        <v>1176.599035247486</v>
+        <v>1507.107777810847</v>
       </c>
       <c r="N24" t="n">
-        <v>1798.694998646823</v>
+        <v>2129.203741210184</v>
       </c>
       <c r="O24" t="n">
-        <v>2345.571473647017</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P24" t="n">
         <v>2553.812354695766</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>495.0957149476001</v>
+        <v>662.7462509176838</v>
       </c>
       <c r="C25" t="n">
-        <v>326.1595320196932</v>
+        <v>493.8100679897769</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0625429770282</v>
+        <v>343.6934285774412</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0625429770282</v>
+        <v>343.6934285774412</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0625429770282</v>
+        <v>343.6934285774412</v>
       </c>
       <c r="G25" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="H25" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="I25" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J25" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K25" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L25" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M25" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N25" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O25" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P25" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q25" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R25" t="n">
-        <v>2361.553154294196</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S25" t="n">
-        <v>2178.382964033126</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T25" t="n">
-        <v>1958.704181747508</v>
+        <v>2126.354717717591</v>
       </c>
       <c r="U25" t="n">
-        <v>1669.627968062235</v>
+        <v>1837.278504032319</v>
       </c>
       <c r="V25" t="n">
-        <v>1414.943479856348</v>
+        <v>1582.594015826432</v>
       </c>
       <c r="W25" t="n">
-        <v>1125.526309819387</v>
+        <v>1293.176845789471</v>
       </c>
       <c r="X25" t="n">
-        <v>897.5367589213699</v>
+        <v>1065.187294891454</v>
       </c>
       <c r="Y25" t="n">
-        <v>676.7441797778398</v>
+        <v>844.3947157479236</v>
       </c>
     </row>
     <row r="26">
@@ -6220,34 +6220,34 @@
         <v>380.2757138127629</v>
       </c>
       <c r="H26" t="n">
-        <v>93.84834815160707</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I26" t="n">
         <v>93.84834815160704</v>
       </c>
       <c r="J26" t="n">
-        <v>373.3442236507201</v>
+        <v>373.3442236507206</v>
       </c>
       <c r="K26" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L26" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M26" t="n">
-        <v>2183.498949883215</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N26" t="n">
-        <v>2920.783927800321</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O26" t="n">
-        <v>3603.64596425946</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P26" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q26" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R26" t="n">
         <v>4692.417407580352</v>
@@ -6305,25 +6305,25 @@
         <v>93.84834815160704</v>
       </c>
       <c r="J27" t="n">
-        <v>93.84834815160704</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K27" t="n">
-        <v>93.84834815160704</v>
+        <v>572.0050724668126</v>
       </c>
       <c r="L27" t="n">
-        <v>373.2380436180322</v>
+        <v>1062.737405310565</v>
       </c>
       <c r="M27" t="n">
-        <v>965.25639787016</v>
+        <v>1281.571598885105</v>
       </c>
       <c r="N27" t="n">
-        <v>1587.352361269496</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="O27" t="n">
-        <v>2134.22883626969</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.812354695766</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.8714428665047</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="C28" t="n">
-        <v>402.9352599385978</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="D28" t="n">
-        <v>402.9352599385978</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="E28" t="n">
-        <v>402.9352599385978</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="F28" t="n">
-        <v>402.9352599385978</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G28" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H28" t="n">
         <v>93.84834815160704</v>
@@ -6384,52 +6384,52 @@
         <v>93.84834815160704</v>
       </c>
       <c r="J28" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K28" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L28" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M28" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N28" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O28" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P28" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q28" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R28" t="n">
-        <v>2361.553154294196</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S28" t="n">
-        <v>2255.15869195203</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.479909666413</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.403695981139</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.719207775252</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.302037738292</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X28" t="n">
-        <v>974.3124868402746</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.5199076967444</v>
+        <v>676.7441797778425</v>
       </c>
     </row>
     <row r="29">
@@ -6451,43 +6451,43 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G29" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127628</v>
       </c>
       <c r="H29" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I29" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J29" t="n">
-        <v>373.3442236507201</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K29" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L29" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M29" t="n">
-        <v>2183.498949883215</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N29" t="n">
-        <v>2920.783927800321</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O29" t="n">
-        <v>3603.64596425946</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P29" t="n">
-        <v>4151.951912946808</v>
+        <v>4151.951912946813</v>
       </c>
       <c r="Q29" t="n">
-        <v>4515.534099052815</v>
+        <v>4515.53409905282</v>
       </c>
       <c r="R29" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S29" t="n">
         <v>4606.950144347201</v>
@@ -6536,28 +6536,28 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H30" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I30" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J30" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K30" t="n">
-        <v>93.84834815160704</v>
+        <v>302.0892292003537</v>
       </c>
       <c r="L30" t="n">
-        <v>373.2380436180322</v>
+        <v>792.8215620441057</v>
       </c>
       <c r="M30" t="n">
-        <v>965.25639787016</v>
+        <v>1384.839916296234</v>
       </c>
       <c r="N30" t="n">
-        <v>1587.352361269496</v>
+        <v>2006.935879695571</v>
       </c>
       <c r="O30" t="n">
-        <v>2134.22883626969</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P30" t="n">
         <v>2553.812354695766</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>804.6189678792535</v>
+        <v>869.9011758612336</v>
       </c>
       <c r="C31" t="n">
-        <v>635.6827849513467</v>
+        <v>700.9649929333267</v>
       </c>
       <c r="D31" t="n">
-        <v>485.566145539011</v>
+        <v>550.8483535209909</v>
       </c>
       <c r="E31" t="n">
-        <v>485.566145539011</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="F31" t="n">
-        <v>485.566145539011</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G31" t="n">
-        <v>318.3519507135898</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H31" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I31" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J31" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K31" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L31" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M31" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N31" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O31" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P31" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q31" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R31" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="S31" t="n">
-        <v>2429.412499335695</v>
+        <v>2325.198874048742</v>
       </c>
       <c r="T31" t="n">
-        <v>2268.227434679161</v>
+        <v>2105.520091763124</v>
       </c>
       <c r="U31" t="n">
-        <v>1979.151220993888</v>
+        <v>1816.443878077851</v>
       </c>
       <c r="V31" t="n">
-        <v>1724.466732788001</v>
+        <v>1561.759389871964</v>
       </c>
       <c r="W31" t="n">
-        <v>1435.049562751041</v>
+        <v>1272.342219835003</v>
       </c>
       <c r="X31" t="n">
-        <v>1207.060011853023</v>
+        <v>1272.342219835003</v>
       </c>
       <c r="Y31" t="n">
-        <v>986.2674327094933</v>
+        <v>1051.549640691473</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C32" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.29867689096</v>
       </c>
       <c r="D32" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.03297828421</v>
       </c>
       <c r="E32" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685965</v>
       </c>
       <c r="F32" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963575</v>
       </c>
       <c r="G32" t="n">
-        <v>380.2757138127628</v>
+        <v>380.2757138127638</v>
       </c>
       <c r="H32" t="n">
-        <v>93.84834815160696</v>
+        <v>93.84834815160777</v>
       </c>
       <c r="I32" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J32" t="n">
-        <v>373.3442236507201</v>
+        <v>373.3442236507186</v>
       </c>
       <c r="K32" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074383984</v>
       </c>
       <c r="L32" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944171</v>
       </c>
       <c r="M32" t="n">
-        <v>2183.498949883215</v>
+        <v>2183.498949883205</v>
       </c>
       <c r="N32" t="n">
-        <v>2920.783927800321</v>
+        <v>2920.783927800308</v>
       </c>
       <c r="O32" t="n">
-        <v>3603.64596425946</v>
+        <v>3603.645964259444</v>
       </c>
       <c r="P32" t="n">
-        <v>4151.951912946808</v>
+        <v>4151.95191294679</v>
       </c>
       <c r="Q32" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403616</v>
       </c>
       <c r="R32" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580353</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.950144347202</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.740996026519</v>
+        <v>4405.74099602652</v>
       </c>
       <c r="U32" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.29766674607</v>
       </c>
       <c r="V32" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W32" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132385</v>
       </c>
       <c r="X32" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871305</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="33">
@@ -6755,61 +6755,61 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>943.6608414294086</v>
+        <v>943.6608414294088</v>
       </c>
       <c r="C33" t="n">
-        <v>769.2078121482816</v>
+        <v>769.2078121482818</v>
       </c>
       <c r="D33" t="n">
-        <v>620.2734024870304</v>
+        <v>620.2734024870306</v>
       </c>
       <c r="E33" t="n">
-        <v>461.0359474815749</v>
+        <v>461.035947481575</v>
       </c>
       <c r="F33" t="n">
-        <v>314.5013895084599</v>
+        <v>314.50138950846</v>
       </c>
       <c r="G33" t="n">
-        <v>178.7211392683894</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H33" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I33" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J33" t="n">
-        <v>241.496329903453</v>
+        <v>241.4963299034522</v>
       </c>
       <c r="K33" t="n">
-        <v>572.0050724668118</v>
+        <v>572.0050724668096</v>
       </c>
       <c r="L33" t="n">
-        <v>1062.737405310563</v>
+        <v>689.5532446329873</v>
       </c>
       <c r="M33" t="n">
-        <v>1654.755759562691</v>
+        <v>1281.571598885113</v>
       </c>
       <c r="N33" t="n">
-        <v>2006.935879695572</v>
+        <v>1903.667562284447</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.812354695766</v>
+        <v>1903.667562284447</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.251080710521</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.812354695766</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="R33" t="n">
-        <v>2553.812354695766</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="S33" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T33" t="n">
-        <v>2244.906943855537</v>
+        <v>2244.906943855538</v>
       </c>
       <c r="U33" t="n">
         <v>2016.877442379908</v>
@@ -6821,7 +6821,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X33" t="n">
-        <v>1319.63647721443</v>
+        <v>1319.636477214431</v>
       </c>
       <c r="Y33" t="n">
         <v>1111.876178449477</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>784.1719286328732</v>
+        <v>571.8714428665048</v>
       </c>
       <c r="C34" t="n">
-        <v>615.2357457049663</v>
+        <v>402.9352599385979</v>
       </c>
       <c r="D34" t="n">
-        <v>485.566145539011</v>
+        <v>402.9352599385979</v>
       </c>
       <c r="E34" t="n">
-        <v>485.566145539011</v>
+        <v>402.9352599385979</v>
       </c>
       <c r="F34" t="n">
-        <v>485.566145539011</v>
+        <v>402.9352599385979</v>
       </c>
       <c r="G34" t="n">
-        <v>318.3519507135898</v>
+        <v>235.7210651131767</v>
       </c>
       <c r="H34" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I34" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J34" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411604</v>
       </c>
       <c r="K34" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117232</v>
       </c>
       <c r="L34" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948563</v>
       </c>
       <c r="M34" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139314</v>
       </c>
       <c r="N34" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.14647393102</v>
       </c>
       <c r="O34" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946049</v>
       </c>
       <c r="P34" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782252</v>
       </c>
       <c r="Q34" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335687</v>
       </c>
       <c r="R34" t="n">
-        <v>2361.553154294196</v>
+        <v>2361.553154294188</v>
       </c>
       <c r="S34" t="n">
-        <v>2178.382964033126</v>
+        <v>2255.158691952031</v>
       </c>
       <c r="T34" t="n">
-        <v>1958.704181747508</v>
+        <v>2035.479909666413</v>
       </c>
       <c r="U34" t="n">
-        <v>1958.704181747508</v>
+        <v>1746.40369598114</v>
       </c>
       <c r="V34" t="n">
-        <v>1704.019693541621</v>
+        <v>1491.719207775253</v>
       </c>
       <c r="W34" t="n">
-        <v>1414.60252350466</v>
+        <v>1202.302037738292</v>
       </c>
       <c r="X34" t="n">
-        <v>1186.612972606643</v>
+        <v>974.3124868402747</v>
       </c>
       <c r="Y34" t="n">
-        <v>965.820393463113</v>
+        <v>753.5199076967446</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C35" t="n">
         <v>1949.298676890959</v>
@@ -6925,43 +6925,43 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G35" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H35" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I35" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J35" t="n">
-        <v>424.1437450015205</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K35" t="n">
-        <v>893.7741287892025</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L35" t="n">
-        <v>1513.293909294977</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M35" t="n">
-        <v>2234.298471234015</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N35" t="n">
-        <v>2971.583449151121</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O35" t="n">
-        <v>3654.445485610259</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P35" t="n">
-        <v>4202.751434297607</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q35" t="n">
-        <v>4566.333620403614</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R35" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S35" t="n">
         <v>4606.950144347201</v>
@@ -6973,7 +6973,7 @@
         <v>4152.297666746069</v>
       </c>
       <c r="V35" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W35" t="n">
         <v>3468.466124132384</v>
@@ -6982,7 +6982,7 @@
         <v>3095.000365871304</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="36">
@@ -7010,31 +7010,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H36" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I36" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J36" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K36" t="n">
-        <v>93.84834815160704</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L36" t="n">
-        <v>142.676769632785</v>
+        <v>915.089423558717</v>
       </c>
       <c r="M36" t="n">
-        <v>734.6951238849127</v>
+        <v>1507.107777810845</v>
       </c>
       <c r="N36" t="n">
-        <v>1356.791087284249</v>
+        <v>2129.203741210181</v>
       </c>
       <c r="O36" t="n">
-        <v>1903.667562284443</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P36" t="n">
-        <v>2323.251080710519</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.812354695766</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.8714428665047</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C37" t="n">
-        <v>402.9352599385978</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D37" t="n">
-        <v>402.9352599385978</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E37" t="n">
-        <v>402.9352599385978</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="F37" t="n">
-        <v>402.9352599385978</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="G37" t="n">
         <v>235.7210651131766</v>
       </c>
       <c r="H37" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I37" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J37" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K37" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L37" t="n">
         <v>820.2210160948589</v>
@@ -7122,25 +7122,25 @@
         <v>2361.553154294196</v>
       </c>
       <c r="S37" t="n">
-        <v>2255.15869195203</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.479909666413</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.403695981139</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.719207775252</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.302037738292</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X37" t="n">
-        <v>974.3124868402746</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.5199076967444</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C38" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D38" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E38" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F38" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G38" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H38" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I38" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J38" t="n">
-        <v>373.3442236507201</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K38" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L38" t="n">
-        <v>1513.293909294977</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M38" t="n">
-        <v>2234.298471234015</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N38" t="n">
-        <v>2971.583449151121</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O38" t="n">
-        <v>3654.445485610259</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P38" t="n">
-        <v>4202.751434297607</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q38" t="n">
-        <v>4566.333620403614</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R38" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T38" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U38" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V38" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W38" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X38" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="39">
@@ -7247,31 +7247,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H39" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I39" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J39" t="n">
-        <v>241.496329903453</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K39" t="n">
-        <v>504.6016741736171</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L39" t="n">
-        <v>995.3340070173684</v>
+        <v>689.55324463298</v>
       </c>
       <c r="M39" t="n">
-        <v>1587.352361269496</v>
+        <v>1281.571598885108</v>
       </c>
       <c r="N39" t="n">
-        <v>1587.352361269496</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="O39" t="n">
-        <v>2134.22883626969</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.812354695766</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>930.4858260316502</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C40" t="n">
-        <v>930.4858260316502</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="D40" t="n">
-        <v>780.3691866193144</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="E40" t="n">
-        <v>632.4560930369213</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="F40" t="n">
-        <v>485.566145539011</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G40" t="n">
-        <v>318.3519507135898</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H40" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I40" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J40" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K40" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L40" t="n">
         <v>820.2210160948589</v>
@@ -7374,10 +7374,10 @@
         <v>1125.526309819387</v>
       </c>
       <c r="X40" t="n">
-        <v>930.4858260316502</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y40" t="n">
-        <v>930.4858260316502</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="41">
@@ -7393,52 +7393,52 @@
         <v>1949.298676890958</v>
       </c>
       <c r="D41" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E41" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F41" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963555</v>
       </c>
       <c r="G41" t="n">
         <v>380.2757138127629</v>
       </c>
       <c r="H41" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I41" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J41" t="n">
-        <v>373.3442236507201</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K41" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L41" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M41" t="n">
-        <v>2183.498949883215</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N41" t="n">
-        <v>2920.783927800321</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O41" t="n">
-        <v>3654.445485610259</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P41" t="n">
-        <v>4202.751434297607</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q41" t="n">
-        <v>4566.333620403614</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R41" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T41" t="n">
         <v>4405.740996026519</v>
@@ -7484,31 +7484,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H42" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I42" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J42" t="n">
-        <v>93.84834815160704</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K42" t="n">
-        <v>142.676769632785</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L42" t="n">
-        <v>142.676769632785</v>
+        <v>734.6951238849133</v>
       </c>
       <c r="M42" t="n">
-        <v>734.6951238849127</v>
+        <v>734.6951238849133</v>
       </c>
       <c r="N42" t="n">
         <v>1356.791087284249</v>
       </c>
       <c r="O42" t="n">
-        <v>1903.667562284443</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="P42" t="n">
-        <v>2323.251080710519</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.812354695766</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>714.774497233218</v>
+        <v>562.9550599890988</v>
       </c>
       <c r="C43" t="n">
-        <v>545.8383143053111</v>
+        <v>538.7680286442462</v>
       </c>
       <c r="D43" t="n">
-        <v>395.7216748929753</v>
+        <v>388.6513892319105</v>
       </c>
       <c r="E43" t="n">
-        <v>343.6934285774414</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F43" t="n">
-        <v>343.6934285774414</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G43" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H43" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I43" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J43" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K43" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L43" t="n">
         <v>820.2210160948589</v>
@@ -7593,28 +7593,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R43" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S43" t="n">
-        <v>2178.382964033126</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T43" t="n">
-        <v>2178.382964033126</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U43" t="n">
-        <v>1889.306750347853</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V43" t="n">
-        <v>1634.622262141966</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W43" t="n">
-        <v>1345.205092105005</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X43" t="n">
-        <v>1117.215541206988</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y43" t="n">
-        <v>896.4229620634577</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
     <row r="44">
@@ -7636,46 +7636,46 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G44" t="n">
         <v>380.2757138127629</v>
       </c>
       <c r="H44" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I44" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J44" t="n">
-        <v>373.3442236507201</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K44" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L44" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M44" t="n">
-        <v>2183.498949883215</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N44" t="n">
-        <v>2920.783927800321</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O44" t="n">
-        <v>3603.64596425946</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P44" t="n">
-        <v>4151.951912946808</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q44" t="n">
-        <v>4515.534099052815</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R44" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T44" t="n">
         <v>4405.740996026519</v>
@@ -7721,31 +7721,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I45" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J45" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K45" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="L45" t="n">
-        <v>142.676769632785</v>
+        <v>373.2380436180325</v>
       </c>
       <c r="M45" t="n">
-        <v>734.6951238849127</v>
+        <v>965.2563978701601</v>
       </c>
       <c r="N45" t="n">
-        <v>1356.791087284249</v>
+        <v>1587.352361269496</v>
       </c>
       <c r="O45" t="n">
-        <v>1903.667562284443</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P45" t="n">
-        <v>2323.251080710519</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.812354695766</v>
@@ -7785,7 +7785,7 @@
         <v>562.9550599890988</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7680286442462</v>
+        <v>394.0188770611919</v>
       </c>
       <c r="D46" t="n">
         <v>388.6513892319105</v>
@@ -7794,22 +7794,22 @@
         <v>240.7382956495174</v>
       </c>
       <c r="F46" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G46" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H46" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I46" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J46" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K46" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L46" t="n">
         <v>820.2210160948589</v>
@@ -8072,7 +8072,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783518</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>90.64146763747317</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>51.31264782909045</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8701,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>51.31264782909079</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>51.31264782909045</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>51.31264782909136</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -9184,10 +9184,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>51.31264782908983</v>
       </c>
       <c r="R17" t="n">
-        <v>51.312647829089</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>51.312647829089</v>
+        <v>51.31264782908309</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>51.31264782908991</v>
+        <v>51.31264782908309</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9892,13 +9892,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>51.3126478290834</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>51.31264782908991</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>51.31264782908991</v>
+        <v>51.31264782908309</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>51.31264782911194</v>
       </c>
       <c r="R32" t="n">
-        <v>51.31264782908991</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>51.31264782909136</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>51.31264782909113</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10828,13 +10828,13 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>51.31264782909136</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>51.31264782909102</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>51.31264782909057</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>51.31264782908991</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>140.88596752517</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>29.14392329984457</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>76.00797063971552</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
         <v>81.80457674440902</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>65.0613636353763</v>
       </c>
     </row>
     <row r="17">
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>65.06136363537625</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5420528771669</v>
+        <v>76.00797063971555</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.80457674440902</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>80.97502887069287</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919539</v>
+        <v>76.00797063971282</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>84.16945386597398</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24384,7 +24384,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>165.97403061038</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>84.16945386597133</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I28" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>76.00797063971532</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24846,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S31" t="n">
-        <v>181.338488358459</v>
+        <v>78.16699932437395</v>
       </c>
       <c r="T31" t="n">
-        <v>57.90878045279405</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>20.24256885391654</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.80457674440925</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>76.00797063972357</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>76.00797063971552</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>76.00797063971532</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>76.00797063971555</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>32.61957643917742</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>143.3016600672238</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>94.92599879419053</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H43" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
         <v>143.3016600672238</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I46" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>791500.295629941</v>
+        <v>791500.2956299412</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>791500.2956299409</v>
+        <v>791500.295629941</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>791500.2956299408</v>
+        <v>791500.2956299409</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>791500.2956299409</v>
+        <v>791500.295629941</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>791500.2956299412</v>
+        <v>791500.295629941</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>791500.2956299409</v>
+        <v>791500.295629941</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>791500.2956299409</v>
+        <v>791500.295629941</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="E2" t="n">
-        <v>625179.3072668838</v>
+        <v>625179.3072668834</v>
       </c>
       <c r="F2" t="n">
-        <v>625179.3072668836</v>
+        <v>625179.3072668834</v>
       </c>
       <c r="G2" t="n">
-        <v>625179.3072668833</v>
+        <v>625179.3072668834</v>
       </c>
       <c r="H2" t="n">
         <v>625179.3072668833</v>
       </c>
       <c r="I2" t="n">
-        <v>625179.3072668833</v>
+        <v>625179.3072668832</v>
       </c>
       <c r="J2" t="n">
         <v>625179.3072668832</v>
       </c>
       <c r="K2" t="n">
+        <v>625179.3072668833</v>
+      </c>
+      <c r="L2" t="n">
+        <v>625179.3072668829</v>
+      </c>
+      <c r="M2" t="n">
         <v>625179.3072668832</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625179.3072668833</v>
-      </c>
-      <c r="M2" t="n">
-        <v>625179.3072668833</v>
       </c>
       <c r="N2" t="n">
         <v>625179.3072668834</v>
       </c>
       <c r="O2" t="n">
-        <v>625179.3072668832</v>
+        <v>625179.3072668833</v>
       </c>
       <c r="P2" t="n">
         <v>625179.3072668834</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>936509.6654545122</v>
+        <v>936509.6654545128</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.044609689415665e-09</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-2.397933367659182e-09</v>
       </c>
       <c r="M3" t="n">
-        <v>124307.2113901372</v>
+        <v>124307.2113901401</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
-        <v>201064.5059277315</v>
+        <v>201064.5059277316</v>
       </c>
       <c r="E4" t="n">
-        <v>5781.971894855164</v>
+        <v>5781.971894855114</v>
       </c>
       <c r="F4" t="n">
-        <v>5781.971894855151</v>
+        <v>5781.971894855122</v>
       </c>
       <c r="G4" t="n">
-        <v>5781.971894855089</v>
+        <v>5781.9718948551</v>
       </c>
       <c r="H4" t="n">
-        <v>5781.971894855138</v>
+        <v>5781.971894855047</v>
       </c>
       <c r="I4" t="n">
-        <v>5781.971894855101</v>
+        <v>5781.971894855005</v>
       </c>
       <c r="J4" t="n">
-        <v>5781.971894855101</v>
+        <v>5781.97189485501</v>
       </c>
       <c r="K4" t="n">
-        <v>5781.971894855101</v>
+        <v>5781.971894855005</v>
       </c>
       <c r="L4" t="n">
-        <v>5781.971894855102</v>
+        <v>5781.971894855407</v>
       </c>
       <c r="M4" t="n">
-        <v>5781.971894855122</v>
+        <v>5781.971894855154</v>
       </c>
       <c r="N4" t="n">
-        <v>5781.971894855122</v>
+        <v>5781.971894855162</v>
       </c>
       <c r="O4" t="n">
-        <v>5781.971894855111</v>
+        <v>5781.971894855162</v>
       </c>
       <c r="P4" t="n">
-        <v>5781.971894855101</v>
+        <v>5781.971894855114</v>
       </c>
     </row>
     <row r="5">
@@ -26475,22 +26475,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340943</v>
       </c>
       <c r="E5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="F5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="G5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="H5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="I5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="J5" t="n">
         <v>100930.0394572386</v>
@@ -26499,19 +26499,19 @@
         <v>100930.0394572386</v>
       </c>
       <c r="L5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="M5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="N5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="O5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="P5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-237584.0915608657</v>
       </c>
       <c r="C6" t="n">
-        <v>352383.7876536784</v>
+        <v>352383.7876536787</v>
       </c>
       <c r="D6" t="n">
-        <v>352383.7876536786</v>
+        <v>352383.7876536791</v>
       </c>
       <c r="E6" t="n">
-        <v>-418401.3393583652</v>
+        <v>-418078.2665215873</v>
       </c>
       <c r="F6" t="n">
-        <v>518108.3260961468</v>
+        <v>518431.3989329254</v>
       </c>
       <c r="G6" t="n">
-        <v>518108.3260961465</v>
+        <v>518431.3989329254</v>
       </c>
       <c r="H6" t="n">
-        <v>518108.3260961465</v>
+        <v>518431.3989329244</v>
       </c>
       <c r="I6" t="n">
-        <v>518108.3260961465</v>
+        <v>518431.3989329253</v>
       </c>
       <c r="J6" t="n">
-        <v>341685.1069035534</v>
+        <v>342008.1797403323</v>
       </c>
       <c r="K6" t="n">
-        <v>518108.3260961464</v>
+        <v>518431.3989329254</v>
       </c>
       <c r="L6" t="n">
-        <v>518108.3260961465</v>
+        <v>518431.3989329287</v>
       </c>
       <c r="M6" t="n">
-        <v>393801.1147060093</v>
+        <v>394124.1875427851</v>
       </c>
       <c r="N6" t="n">
-        <v>518108.3260961466</v>
+        <v>518431.3989329255</v>
       </c>
       <c r="O6" t="n">
-        <v>518108.3260961464</v>
+        <v>518431.3989329254</v>
       </c>
       <c r="P6" t="n">
-        <v>518108.3260961466</v>
+        <v>518431.3989329255</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.419150020582837e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.419150020582837e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.419150020582837e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.419150020582837e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.419150020582837e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170862</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
@@ -26755,19 +26755,19 @@
         <v>1358.041048716386</v>
       </c>
       <c r="H3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="I3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="J3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="K3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="L3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716382</v>
       </c>
       <c r="M3" t="n">
         <v>1358.041048716386</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545551</v>
       </c>
       <c r="E4" t="n">
         <v>1173.104351895088</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.419150020582837e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>980.2973844992991</v>
+        <v>980.2973844992996</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26989,10 +26989,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-4.760088776274596e-12</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>4.092726157978177e-12</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.8170791405322</v>
+        <v>498.8170791405329</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405322</v>
+        <v>498.8170791405324</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.419150020582837e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405322</v>
+        <v>498.8170791405329</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,13 +27387,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>35.69634934805669</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>99.10841501723583</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27539,10 +27539,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>78.50047538276496</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,10 +27596,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>114.7731302731593</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>142.6145260167544</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27672,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>333.415037428428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27830,13 +27830,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>202.6983327287247</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>117.0233846211325</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>61.27561828243319</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>116.0611043592034</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,13 +28070,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>171.2488638306991</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28316,7 +28316,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.993567224040755e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>9.224832392215706e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28809,7 +28809,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30234,7 +30234,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30474,7 +30474,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340044</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140998</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.5445733255446</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081575</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630667</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405364</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338301</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119863</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954664</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044135</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633786</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727379</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473545</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472035</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.81250524001411</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188905</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890686</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396467</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.20177816491</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478005</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983119</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736698</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923045</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034976</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131471</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372661</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619147</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078602</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644434</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492002</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813572</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302229</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917248</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175832</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383791</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678001</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.6281993970116</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695334</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.91048397019722</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315606</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31840,16 +31840,16 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>177.5113380923665</v>
       </c>
       <c r="K12" t="n">
-        <v>187.1630768341347</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504302</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>759.7214730927639</v>
@@ -31861,7 +31861,7 @@
         <v>557.7961431982454</v>
       </c>
       <c r="Q12" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32317,7 +32317,7 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K18" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>634.2436048745725</v>
@@ -32326,16 +32326,16 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N18" t="n">
-        <v>382.7677754386387</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P18" t="n">
-        <v>557.7961431982454</v>
+        <v>195.1793561990816</v>
       </c>
       <c r="Q18" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874065</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K20" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M20" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S20" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T20" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U20" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H21" t="n">
-        <v>28.21138103088191</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,19 +32554,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>348.1857632660254</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L21" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M21" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426205</v>
+        <v>571.493833823821</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H22" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J22" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K22" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P22" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q22" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R22" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T22" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H23" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J23" t="n">
-        <v>463.3649706874065</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K23" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L23" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M23" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N23" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O23" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P23" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q23" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R23" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S23" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T23" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U23" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H24" t="n">
-        <v>28.21138103088191</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,22 +32791,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L24" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M24" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N24" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O24" t="n">
-        <v>694.9967242426205</v>
+        <v>571.493833823821</v>
       </c>
       <c r="P24" t="n">
-        <v>344.3187317059965</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T24" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H25" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I25" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J25" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K25" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L25" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M25" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N25" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O25" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P25" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q25" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R25" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S25" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T25" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H26" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J26" t="n">
-        <v>463.3649706874065</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K26" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L26" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M26" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N26" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O26" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P26" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q26" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R26" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S26" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T26" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U26" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H27" t="n">
-        <v>28.21138103088191</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L27" t="n">
-        <v>420.7661933823238</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M27" t="n">
-        <v>740.1323715504302</v>
+        <v>363.178673896302</v>
       </c>
       <c r="N27" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O27" t="n">
-        <v>694.9967242426205</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>557.7961431982454</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286956</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T27" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H28" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I28" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J28" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K28" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L28" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M28" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N28" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O28" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P28" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q28" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R28" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S28" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T28" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H29" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J29" t="n">
-        <v>463.3649706874065</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K29" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L29" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M29" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N29" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O29" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P29" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q29" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R29" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S29" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T29" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U29" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H30" t="n">
-        <v>28.21138103088191</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,22 +33265,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>348.1857632660223</v>
       </c>
       <c r="L30" t="n">
-        <v>420.7661933823238</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M30" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N30" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O30" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P30" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T30" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H31" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I31" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J31" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K31" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L31" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M31" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N31" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O31" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P31" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q31" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R31" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S31" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T31" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377409</v>
       </c>
       <c r="H32" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122265</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704053</v>
       </c>
       <c r="J32" t="n">
-        <v>463.3649706874065</v>
+        <v>463.364970687405</v>
       </c>
       <c r="K32" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830408</v>
       </c>
       <c r="L32" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364237</v>
       </c>
       <c r="M32" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293279</v>
       </c>
       <c r="N32" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229578</v>
       </c>
       <c r="O32" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086924</v>
       </c>
       <c r="P32" t="n">
-        <v>785.0773883687525</v>
+        <v>785.07738836875</v>
       </c>
       <c r="Q32" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148588</v>
       </c>
       <c r="R32" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987152</v>
       </c>
       <c r="S32" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854253</v>
       </c>
       <c r="T32" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665712</v>
       </c>
       <c r="U32" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901926</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540896</v>
       </c>
       <c r="H33" t="n">
-        <v>28.21138103088191</v>
+        <v>28.21138103088182</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>275.9770021735818</v>
+        <v>275.977002173581</v>
       </c>
       <c r="K33" t="n">
-        <v>471.6886536848224</v>
+        <v>471.688653684821</v>
       </c>
       <c r="L33" t="n">
-        <v>634.2436048745725</v>
+        <v>257.2899072204578</v>
       </c>
       <c r="M33" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504278</v>
       </c>
       <c r="N33" t="n">
-        <v>487.0792071670518</v>
+        <v>759.7214730927615</v>
       </c>
       <c r="O33" t="n">
-        <v>694.9967242426205</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982436</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286941</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862144</v>
       </c>
       <c r="T33" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821089</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013748</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291835</v>
       </c>
       <c r="H34" t="n">
-        <v>21.77318271548567</v>
+        <v>21.77318271548561</v>
       </c>
       <c r="I34" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284904</v>
       </c>
       <c r="J34" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273327</v>
       </c>
       <c r="K34" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900877</v>
       </c>
       <c r="L34" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640607</v>
       </c>
       <c r="M34" t="n">
-        <v>383.8803574265022</v>
+        <v>383.880357426501</v>
       </c>
       <c r="N34" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416863</v>
       </c>
       <c r="O34" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465952</v>
       </c>
       <c r="P34" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282415</v>
       </c>
       <c r="Q34" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561736</v>
       </c>
       <c r="R34" t="n">
-        <v>110.1126397860859</v>
+        <v>110.1126397860856</v>
       </c>
       <c r="S34" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851315</v>
       </c>
       <c r="T34" t="n">
-        <v>10.46359496551969</v>
+        <v>10.46359496551966</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704639</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,46 +33648,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H35" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K35" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L35" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M35" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N35" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O35" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P35" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q35" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R35" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S35" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T35" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U35" t="n">
         <v>0.436756920190194</v>
@@ -33730,7 +33730,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H36" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,34 +33739,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L36" t="n">
-        <v>187.8760176396499</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M36" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N36" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O36" t="n">
-        <v>694.9967242426205</v>
+        <v>571.4938338238237</v>
       </c>
       <c r="P36" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T36" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U36" t="n">
         <v>0.1921756201013754</v>
@@ -33812,7 +33812,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I37" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J37" t="n">
         <v>173.1391022273333</v>
@@ -33821,16 +33821,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L37" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M37" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N37" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O37" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P37" t="n">
         <v>296.1865264282424</v>
@@ -33842,7 +33842,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S37" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T37" t="n">
         <v>10.46359496551969</v>
@@ -33885,46 +33885,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H38" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K38" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L38" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M38" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N38" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O38" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P38" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q38" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R38" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S38" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T38" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U38" t="n">
         <v>0.436756920190194</v>
@@ -33967,7 +33967,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H39" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,34 +33976,34 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K39" t="n">
-        <v>403.6044129846258</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L39" t="n">
-        <v>634.2436048745725</v>
+        <v>257.2899072204482</v>
       </c>
       <c r="M39" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O39" t="n">
-        <v>694.9967242426205</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>557.7961431982454</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T39" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U39" t="n">
         <v>0.1921756201013754</v>
@@ -34049,7 +34049,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I40" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J40" t="n">
         <v>173.1391022273333</v>
@@ -34058,16 +34058,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L40" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M40" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N40" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O40" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P40" t="n">
         <v>296.1865264282424</v>
@@ -34079,7 +34079,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S40" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T40" t="n">
         <v>10.46359496551969</v>
@@ -34122,46 +34122,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H41" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K41" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L41" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M41" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N41" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O41" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P41" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q41" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R41" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S41" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T41" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U41" t="n">
         <v>0.436756920190194</v>
@@ -34204,43 +34204,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H42" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K42" t="n">
-        <v>187.1630768341347</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>302.8877650506839</v>
       </c>
       <c r="M42" t="n">
-        <v>740.1323715504302</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O42" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P42" t="n">
-        <v>557.7961431982454</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q42" t="n">
-        <v>372.8719498286953</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T42" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U42" t="n">
         <v>0.1921756201013754</v>
@@ -34286,7 +34286,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I43" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J43" t="n">
         <v>173.1391022273333</v>
@@ -34295,16 +34295,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L43" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M43" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N43" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O43" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P43" t="n">
         <v>296.1865264282424</v>
@@ -34316,7 +34316,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S43" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T43" t="n">
         <v>10.46359496551969</v>
@@ -34359,46 +34359,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H44" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K44" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L44" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M44" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N44" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O44" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P44" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q44" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R44" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S44" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T44" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U44" t="n">
         <v>0.436756920190194</v>
@@ -34441,7 +34441,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H45" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34453,31 +34453,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>187.8760176396499</v>
+        <v>420.7661933823242</v>
       </c>
       <c r="M45" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N45" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O45" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P45" t="n">
-        <v>557.7961431982454</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q45" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T45" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U45" t="n">
         <v>0.1921756201013754</v>
@@ -34523,7 +34523,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I46" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J46" t="n">
         <v>173.1391022273333</v>
@@ -34532,16 +34532,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L46" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M46" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N46" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O46" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P46" t="n">
         <v>296.1865264282424</v>
@@ -34553,7 +34553,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S46" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T46" t="n">
         <v>10.46359496551969</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181309</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435299</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060961</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492234</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530449</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116794</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898687</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770682</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031296</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713855</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262936</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.31973343389</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245896</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735645</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535805</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713944</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850084</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535654</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.866414655798</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873139</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>333.6317139898107</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K11" t="n">
         <v>474.3741250380626</v>
@@ -35421,7 +35421,7 @@
         <v>728.2874363020583</v>
       </c>
       <c r="N11" t="n">
-        <v>744.73230092637</v>
+        <v>796.0449487554608</v>
       </c>
       <c r="O11" t="n">
         <v>689.7596327870085</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>50.67371142569977</v>
       </c>
       <c r="K12" t="n">
-        <v>49.32163785977568</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284119</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>628.3797610094306</v>
@@ -35509,7 +35509,7 @@
         <v>423.8217357839152</v>
       </c>
       <c r="Q12" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>333.6317139898107</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K14" t="n">
         <v>474.3741250380626</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664393</v>
+        <v>677.0902038955306</v>
       </c>
       <c r="M14" t="n">
         <v>728.2874363020583</v>
@@ -35904,10 +35904,10 @@
         <v>553.844392613483</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404112</v>
+        <v>418.567381269501</v>
       </c>
       <c r="R17" t="n">
-        <v>178.6700086136732</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K18" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>495.6892250946983</v>
@@ -35974,16 +35974,16 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N18" t="n">
-        <v>251.4260633553054</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P18" t="n">
-        <v>423.8217357839152</v>
+        <v>61.20494878475137</v>
       </c>
       <c r="Q18" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7775560664393</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M20" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N20" t="n">
-        <v>744.73230092637</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P20" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R20" t="n">
-        <v>178.6700086136732</v>
+        <v>178.6700086136676</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>210.3443242916665</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L21" t="n">
-        <v>495.6892250946983</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M21" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O21" t="n">
-        <v>552.4004797981761</v>
+        <v>428.8975893793765</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K22" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L22" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N22" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O22" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K23" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7775560664393</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M23" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N23" t="n">
-        <v>744.73230092637</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O23" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P23" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q23" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R23" t="n">
-        <v>178.6700086136741</v>
+        <v>178.6700086136676</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L24" t="n">
-        <v>495.6892250946983</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M24" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N24" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O24" t="n">
-        <v>552.4004797981761</v>
+        <v>428.8975893793765</v>
       </c>
       <c r="P24" t="n">
-        <v>210.3443242916662</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K25" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L25" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M25" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N25" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O25" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P25" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q25" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K26" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L26" t="n">
-        <v>625.7775560664393</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M26" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N26" t="n">
-        <v>744.73230092637</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O26" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P26" t="n">
-        <v>553.844392613483</v>
+        <v>605.1570404425671</v>
       </c>
       <c r="Q26" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R26" t="n">
-        <v>178.6700086136741</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L27" t="n">
-        <v>282.2118136024496</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M27" t="n">
-        <v>597.9983376284119</v>
+        <v>221.0446399742837</v>
       </c>
       <c r="N27" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O27" t="n">
-        <v>552.4004797981761</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>423.8217357839152</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>232.8901757426741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K28" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L28" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M28" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N28" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O28" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P28" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q28" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K29" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L29" t="n">
-        <v>625.7775560664393</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M29" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N29" t="n">
-        <v>744.73230092637</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O29" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P29" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q29" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R29" t="n">
-        <v>178.6700086136741</v>
+        <v>178.6700086136676</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>210.3443242916633</v>
       </c>
       <c r="L30" t="n">
-        <v>282.2118136024496</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M30" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N30" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O30" t="n">
-        <v>552.4004797981761</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P30" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K31" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L31" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M31" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N31" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O31" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P31" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q31" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607188</v>
       </c>
       <c r="K32" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380603</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7775560664393</v>
+        <v>625.7775560664365</v>
       </c>
       <c r="M32" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020552</v>
       </c>
       <c r="N32" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263669</v>
       </c>
       <c r="O32" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870057</v>
       </c>
       <c r="P32" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134805</v>
       </c>
       <c r="Q32" t="n">
-        <v>367.2547334404112</v>
+        <v>418.5673812695212</v>
       </c>
       <c r="R32" t="n">
-        <v>178.6700086136741</v>
+        <v>127.3573607845831</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>149.1393755069151</v>
+        <v>149.1393755069143</v>
       </c>
       <c r="K33" t="n">
-        <v>333.8472147104634</v>
+        <v>333.847214710462</v>
       </c>
       <c r="L33" t="n">
-        <v>495.6892250946983</v>
+        <v>118.7355274405836</v>
       </c>
       <c r="M33" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284094</v>
       </c>
       <c r="N33" t="n">
-        <v>355.7374950837184</v>
+        <v>628.3797610094282</v>
       </c>
       <c r="O33" t="n">
-        <v>552.4004797981761</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>423.8217357839134</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>232.8901757426726</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211065995</v>
       </c>
       <c r="K34" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642048</v>
       </c>
       <c r="L34" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243769</v>
       </c>
       <c r="M34" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883416</v>
       </c>
       <c r="N34" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209149</v>
       </c>
       <c r="O34" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606348</v>
       </c>
       <c r="P34" t="n">
-        <v>293.4650856931359</v>
+        <v>293.465085693135</v>
       </c>
       <c r="Q34" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044792</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>333.6317139898116</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K35" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L35" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M35" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N35" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O35" t="n">
-        <v>689.7596327870085</v>
+        <v>741.0722806160995</v>
       </c>
       <c r="P35" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q35" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R35" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L36" t="n">
-        <v>49.32163785977567</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M36" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N36" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O36" t="n">
-        <v>552.4004797981761</v>
+        <v>428.8975893793793</v>
       </c>
       <c r="P36" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K37" t="n">
         <v>262.2512393642057</v>
@@ -37472,19 +37472,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M37" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N37" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O37" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P37" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q37" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K38" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L38" t="n">
-        <v>677.0902038955306</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M38" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N38" t="n">
-        <v>744.73230092637</v>
+        <v>796.0449487554608</v>
       </c>
       <c r="O38" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P38" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q38" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R38" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K39" t="n">
-        <v>265.7629740102668</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L39" t="n">
-        <v>495.6892250946983</v>
+        <v>118.735527440574</v>
       </c>
       <c r="M39" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O39" t="n">
-        <v>552.4004797981761</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>423.8217357839152</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K40" t="n">
         <v>262.2512393642057</v>
@@ -37709,19 +37709,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M40" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N40" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O40" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P40" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q40" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K41" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L41" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M41" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N41" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O41" t="n">
-        <v>741.0722806160991</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P41" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q41" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R41" t="n">
-        <v>127.3573607845842</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K42" t="n">
-        <v>49.32163785977567</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>164.3333852708097</v>
       </c>
       <c r="M42" t="n">
-        <v>597.9983376284119</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O42" t="n">
-        <v>552.4004797981761</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P42" t="n">
-        <v>423.8217357839152</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q42" t="n">
-        <v>232.8901757426738</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K43" t="n">
         <v>262.2512393642057</v>
@@ -37946,19 +37946,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M43" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N43" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O43" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P43" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q43" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K44" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L44" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M44" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N44" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O44" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P44" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q44" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R44" t="n">
-        <v>178.6700086136741</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>49.32163785977567</v>
+        <v>282.21181360245</v>
       </c>
       <c r="M45" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N45" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O45" t="n">
-        <v>552.4004797981761</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P45" t="n">
-        <v>423.8217357839152</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q45" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K46" t="n">
         <v>262.2512393642057</v>
@@ -38183,19 +38183,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M46" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N46" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O46" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P46" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q46" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
